--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git.repo\steemvotemall.picker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12270"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>acocunt</t>
   </si>
@@ -26,22 +33,130 @@
     <t>vests</t>
   </si>
   <si>
+    <t>sonki999</t>
+  </si>
+  <si>
+    <t>2017-10-30T12:14:51</t>
+  </si>
+  <si>
+    <t>cheolwoo-kim</t>
+  </si>
+  <si>
+    <t>2017-11-02T13:02:03</t>
+  </si>
+  <si>
+    <t>leomichael</t>
+  </si>
+  <si>
+    <t>2017-10-28T07:19:00</t>
+  </si>
+  <si>
+    <t>jxwonah</t>
+  </si>
+  <si>
+    <t>2017-10-27T12:21:54</t>
+  </si>
+  <si>
     <t>yirgacheffe2shot</t>
   </si>
   <si>
     <t>2017-10-22T16:29:51</t>
   </si>
   <si>
+    <t>chunseungho</t>
+  </si>
+  <si>
+    <t>2017-11-01T05:54:24</t>
+  </si>
+  <si>
+    <t>pitasa</t>
+  </si>
+  <si>
+    <t>2017-10-26T06:08:15</t>
+  </si>
+  <si>
+    <t>sailingtohappy</t>
+  </si>
+  <si>
+    <t>2017-11-02T09:43:57</t>
+  </si>
+  <si>
+    <t>ramires</t>
+  </si>
+  <si>
+    <t>2017-10-28T04:54:39</t>
+  </si>
+  <si>
+    <t>hyokhyok</t>
+  </si>
+  <si>
+    <t>2017-10-24T13:34:51</t>
+  </si>
+  <si>
+    <t>greenjuice</t>
+  </si>
+  <si>
+    <t>2017-10-27T06:39:33</t>
+  </si>
+  <si>
+    <t>yoon</t>
+  </si>
+  <si>
+    <t>2017-10-30T10:45:42</t>
+  </si>
+  <si>
+    <t>apmmh</t>
+  </si>
+  <si>
+    <t>2017-10-26T13:58:18</t>
+  </si>
+  <si>
+    <t>changyoon</t>
+  </si>
+  <si>
+    <t>2017-10-25T13:47:36</t>
+  </si>
+  <si>
+    <t>golbang</t>
+  </si>
+  <si>
+    <t>2017-10-25T15:30:09</t>
+  </si>
+  <si>
+    <t>jinh0729</t>
+  </si>
+  <si>
+    <t>2017-10-21T02:13:15</t>
+  </si>
+  <si>
+    <t>yun093</t>
+  </si>
+  <si>
+    <t>2017-10-22T22:26:30</t>
+  </si>
+  <si>
+    <t>d-m</t>
+  </si>
+  <si>
+    <t>2017-10-30T03:54:00</t>
+  </si>
+  <si>
+    <t>ibk</t>
+  </si>
+  <si>
+    <t>2017-10-27T01:59:57</t>
+  </si>
+  <si>
     <t>abdullar</t>
   </si>
   <si>
     <t>2017-11-01T17:15:24</t>
   </si>
   <si>
-    <t>yun093</t>
-  </si>
-  <si>
-    <t>2017-10-22T22:26:30</t>
+    <t>sjchoi</t>
+  </si>
+  <si>
+    <t>2017-10-21T19:10:12</t>
   </si>
   <si>
     <t>virus707</t>
@@ -50,149 +165,40 @@
     <t>2017-10-24T04:26:00</t>
   </si>
   <si>
+    <t>kingbit</t>
+  </si>
+  <si>
+    <t>2017-10-21T15:07:03</t>
+  </si>
+  <si>
     <t>louispark</t>
   </si>
   <si>
     <t>2017-10-22T14:29:36</t>
   </si>
   <si>
-    <t>ramires</t>
-  </si>
-  <si>
-    <t>2017-10-28T04:54:39</t>
-  </si>
-  <si>
-    <t>cheolwoo-kim</t>
-  </si>
-  <si>
-    <t>2017-11-02T13:02:03</t>
-  </si>
-  <si>
-    <t>pitasa</t>
-  </si>
-  <si>
-    <t>2017-10-26T06:08:15</t>
-  </si>
-  <si>
-    <t>changyoon</t>
-  </si>
-  <si>
-    <t>2017-10-25T13:47:36</t>
-  </si>
-  <si>
-    <t>sonki999</t>
-  </si>
-  <si>
-    <t>2017-10-30T12:14:51</t>
-  </si>
-  <si>
-    <t>hyokhyok</t>
-  </si>
-  <si>
-    <t>2017-10-24T13:34:51</t>
-  </si>
-  <si>
-    <t>sjchoi</t>
-  </si>
-  <si>
-    <t>2017-10-21T19:10:12</t>
-  </si>
-  <si>
-    <t>jxwonah</t>
-  </si>
-  <si>
-    <t>2017-10-27T12:21:54</t>
-  </si>
-  <si>
-    <t>golbang</t>
-  </si>
-  <si>
-    <t>2017-10-25T15:30:09</t>
-  </si>
-  <si>
-    <t>d-m</t>
-  </si>
-  <si>
-    <t>2017-10-30T03:54:00</t>
-  </si>
-  <si>
-    <t>sailingtohappy</t>
-  </si>
-  <si>
-    <t>2017-11-02T09:43:57</t>
-  </si>
-  <si>
     <t>tmkor</t>
   </si>
   <si>
     <t>2017-11-02T05:28:12</t>
-  </si>
-  <si>
-    <t>kingbit</t>
-  </si>
-  <si>
-    <t>2017-10-21T15:07:03</t>
-  </si>
-  <si>
-    <t>ibk</t>
-  </si>
-  <si>
-    <t>2017-10-27T01:59:57</t>
-  </si>
-  <si>
-    <t>chunseungho</t>
-  </si>
-  <si>
-    <t>2017-11-01T05:54:24</t>
-  </si>
-  <si>
-    <t>yoon</t>
-  </si>
-  <si>
-    <t>2017-10-30T10:45:42</t>
-  </si>
-  <si>
-    <t>jinh0729</t>
-  </si>
-  <si>
-    <t>2017-10-21T02:13:15</t>
-  </si>
-  <si>
-    <t>greenjuice</t>
-  </si>
-  <si>
-    <t>2017-10-27T06:39:33</t>
-  </si>
-  <si>
-    <t>apmmh</t>
-  </si>
-  <si>
-    <t>2017-10-26T13:58:18</t>
-  </si>
-  <si>
-    <t>leomichael</t>
-  </si>
-  <si>
-    <t>2017-10-28T07:19:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -208,15 +214,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -504,20 +519,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,282 +541,287 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1655625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>13878100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>330234463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>4113208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>20564802.699249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>16453227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4405560</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>2060195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="n">
-        <v>2060195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6">
+        <v>1655625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>20564802.699248999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>4405560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>4124514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>19121902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>4113998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>4121733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>2074201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>10320794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>13825084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>10317876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
         <v>160118543</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6849594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4121733</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="n">
-        <v>19121902</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="n">
-        <v>20609110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4124514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="n">
-        <v>16453227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="n">
-        <v>10317876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4113998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2056136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2119428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2061813</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>61794697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="n">
-        <v>4113208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19">
+        <v>2056136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="n">
-        <v>10320794</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>2055687.5725209999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>20609110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>2064918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="n">
-        <v>2064918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2055687.572521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="n">
-        <v>13878100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23">
+        <v>330234463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="n">
-        <v>13825084</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>2061813</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2074201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>2119428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="n">
-        <v>61794697</v>
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>6849594</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <autoFilter ref="A1:C1">
+    <sortState ref="A2:C26">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git.repo\steemvotemall.picker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12270"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$1</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>acocunt</t>
   </si>
@@ -33,28 +26,94 @@
     <t>vests</t>
   </si>
   <si>
+    <t>leomichael</t>
+  </si>
+  <si>
+    <t>2017-10-28T07:19:00</t>
+  </si>
+  <si>
+    <t>kingbit</t>
+  </si>
+  <si>
+    <t>2017-10-21T15:07:03</t>
+  </si>
+  <si>
+    <t>ramires</t>
+  </si>
+  <si>
+    <t>2017-10-28T04:54:39</t>
+  </si>
+  <si>
+    <t>tmkor</t>
+  </si>
+  <si>
+    <t>2017-11-02T05:28:12</t>
+  </si>
+  <si>
+    <t>sailingtohappy</t>
+  </si>
+  <si>
+    <t>2017-11-02T09:43:57</t>
+  </si>
+  <si>
+    <t>louispark</t>
+  </si>
+  <si>
+    <t>2017-10-22T14:29:36</t>
+  </si>
+  <si>
+    <t>greenjuice</t>
+  </si>
+  <si>
+    <t>2017-10-27T06:39:33</t>
+  </si>
+  <si>
+    <t>cheolwoo-kim</t>
+  </si>
+  <si>
+    <t>2017-11-02T13:02:03</t>
+  </si>
+  <si>
+    <t>jxwonah</t>
+  </si>
+  <si>
+    <t>2017-10-27T12:21:54</t>
+  </si>
+  <si>
+    <t>yun093</t>
+  </si>
+  <si>
+    <t>2017-10-22T22:26:30</t>
+  </si>
+  <si>
     <t>sonki999</t>
   </si>
   <si>
     <t>2017-10-30T12:14:51</t>
   </si>
   <si>
-    <t>cheolwoo-kim</t>
-  </si>
-  <si>
-    <t>2017-11-02T13:02:03</t>
-  </si>
-  <si>
-    <t>leomichael</t>
-  </si>
-  <si>
-    <t>2017-10-28T07:19:00</t>
-  </si>
-  <si>
-    <t>jxwonah</t>
-  </si>
-  <si>
-    <t>2017-10-27T12:21:54</t>
+    <t>ibk</t>
+  </si>
+  <si>
+    <t>2017-10-27T01:59:57</t>
+  </si>
+  <si>
+    <t>virus707</t>
+  </si>
+  <si>
+    <t>2017-10-24T04:26:00</t>
+  </si>
+  <si>
+    <t>hyokhyok</t>
+  </si>
+  <si>
+    <t>2017-10-24T13:34:51</t>
+  </si>
+  <si>
+    <t>sjchoi</t>
+  </si>
+  <si>
+    <t>2017-10-21T19:10:12</t>
   </si>
   <si>
     <t>yirgacheffe2shot</t>
@@ -63,142 +122,77 @@
     <t>2017-10-22T16:29:51</t>
   </si>
   <si>
+    <t>d-m</t>
+  </si>
+  <si>
+    <t>2017-10-30T03:54:00</t>
+  </si>
+  <si>
+    <t>pitasa</t>
+  </si>
+  <si>
+    <t>2017-10-26T06:08:15</t>
+  </si>
+  <si>
+    <t>yoon</t>
+  </si>
+  <si>
+    <t>2017-10-30T10:45:42</t>
+  </si>
+  <si>
+    <t>abdullar</t>
+  </si>
+  <si>
+    <t>2017-11-01T17:15:24</t>
+  </si>
+  <si>
+    <t>golbang</t>
+  </si>
+  <si>
+    <t>2017-10-25T15:30:09</t>
+  </si>
+  <si>
     <t>chunseungho</t>
   </si>
   <si>
     <t>2017-11-01T05:54:24</t>
   </si>
   <si>
-    <t>pitasa</t>
-  </si>
-  <si>
-    <t>2017-10-26T06:08:15</t>
-  </si>
-  <si>
-    <t>sailingtohappy</t>
-  </si>
-  <si>
-    <t>2017-11-02T09:43:57</t>
-  </si>
-  <si>
-    <t>ramires</t>
-  </si>
-  <si>
-    <t>2017-10-28T04:54:39</t>
-  </si>
-  <si>
-    <t>hyokhyok</t>
-  </si>
-  <si>
-    <t>2017-10-24T13:34:51</t>
-  </si>
-  <si>
-    <t>greenjuice</t>
-  </si>
-  <si>
-    <t>2017-10-27T06:39:33</t>
-  </si>
-  <si>
-    <t>yoon</t>
-  </si>
-  <si>
-    <t>2017-10-30T10:45:42</t>
-  </si>
-  <si>
     <t>apmmh</t>
   </si>
   <si>
     <t>2017-10-26T13:58:18</t>
   </si>
   <si>
+    <t>jinh0729</t>
+  </si>
+  <si>
+    <t>2017-10-21T02:13:15</t>
+  </si>
+  <si>
     <t>changyoon</t>
   </si>
   <si>
     <t>2017-10-25T13:47:36</t>
-  </si>
-  <si>
-    <t>golbang</t>
-  </si>
-  <si>
-    <t>2017-10-25T15:30:09</t>
-  </si>
-  <si>
-    <t>jinh0729</t>
-  </si>
-  <si>
-    <t>2017-10-21T02:13:15</t>
-  </si>
-  <si>
-    <t>yun093</t>
-  </si>
-  <si>
-    <t>2017-10-22T22:26:30</t>
-  </si>
-  <si>
-    <t>d-m</t>
-  </si>
-  <si>
-    <t>2017-10-30T03:54:00</t>
-  </si>
-  <si>
-    <t>ibk</t>
-  </si>
-  <si>
-    <t>2017-10-27T01:59:57</t>
-  </si>
-  <si>
-    <t>abdullar</t>
-  </si>
-  <si>
-    <t>2017-11-01T17:15:24</t>
-  </si>
-  <si>
-    <t>sjchoi</t>
-  </si>
-  <si>
-    <t>2017-10-21T19:10:12</t>
-  </si>
-  <si>
-    <t>virus707</t>
-  </si>
-  <si>
-    <t>2017-10-24T04:26:00</t>
-  </si>
-  <si>
-    <t>kingbit</t>
-  </si>
-  <si>
-    <t>2017-10-21T15:07:03</t>
-  </si>
-  <si>
-    <t>louispark</t>
-  </si>
-  <si>
-    <t>2017-10-22T14:29:36</t>
-  </si>
-  <si>
-    <t>tmkor</t>
-  </si>
-  <si>
-    <t>2017-11-02T05:28:12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -214,24 +208,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -519,18 +504,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,287 +528,282 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2">
-        <v>13878100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>61794697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
         <v>4113208</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4">
-        <v>16453227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>160118543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>2060195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2061813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
+        <v>2119428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2060195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13825084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6849594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10317876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20564802.699249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20609110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10320794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4405560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4124514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16453227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="n">
         <v>1655625</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C7">
-        <v>20564802.699248999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8">
-        <v>4405560</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>4124514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>19121902</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11">
-        <v>4113998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>4121733</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13">
-        <v>2074201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>10320794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
-        <v>13825084</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>10317876</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>160118543</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>61794697</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="n">
+        <v>2056136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19">
-        <v>2056136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="n">
+        <v>4121733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>2055687.5725209999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2055687.572521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>20609110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C21" t="n">
+        <v>330234463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22">
+        <v>44</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4113998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="n">
         <v>2064918</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23">
-        <v>330234463</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2074201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="n">
+        <v>13878100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>51</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="C24">
-        <v>2061813</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25">
-        <v>2119428</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>6849594</v>
+      <c r="C26" t="n">
+        <v>19121902</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1">
-    <sortState ref="A2:C26">
-      <sortCondition ref="B1"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>